--- a/dataset/Novel Coronavirus (2019-nCoV) Cases, provided by CN_HK.xlsx
+++ b/dataset/Novel Coronavirus (2019-nCoV) Cases, provided by CN_HK.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="70">
   <si>
     <t>Location</t>
   </si>
@@ -47,10 +47,10 @@
     <t>t</t>
   </si>
   <si>
-    <t>Anhui</t>
+    <t>NaN</t>
   </si>
   <si>
-    <t>NaN</t>
+    <t>Anhui</t>
   </si>
   <si>
     <t>Beijing</t>
@@ -220,6 +220,9 @@
   <si>
     <t>Spain</t>
   </si>
+  <si>
+    <t>Belgium</t>
+  </si>
 </sst>
 </file>
 
@@ -254,12 +257,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -267,11 +267,17 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,16 +517,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -529,7 +535,7 @@
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="1"/>
@@ -552,11 +558,11 @@
       <c r="AB1" s="5"/>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>43840.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>41.0</v>
@@ -565,10 +571,10 @@
         <v>2.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1">
         <v>7.0</v>
@@ -579,7 +585,7 @@
       <c r="I2" s="1">
         <v>739.0</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="1">
         <v>0.0</v>
       </c>
       <c r="K2" s="5"/>
@@ -602,11 +608,11 @@
       <c r="AB2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>43841.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>41.0</v>
@@ -615,10 +621,10 @@
         <v>6.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1">
         <v>7.0</v>
@@ -629,8 +635,9 @@
       <c r="I3" s="1">
         <v>763.0</v>
       </c>
-      <c r="J3" s="4">
-        <v>1.0</v>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J27" si="1">J2+1</f>
+        <v>1</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -652,11 +659,11 @@
       <c r="AB3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>43842.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>41.0</v>
@@ -665,10 +672,10 @@
         <v>7.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1">
         <v>6.0</v>
@@ -679,8 +686,9 @@
       <c r="I4" s="1">
         <v>763.0</v>
       </c>
-      <c r="J4" s="4">
-        <v>2.0</v>
+      <c r="J4" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -702,11 +710,11 @@
       <c r="AB4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>43843.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>41.0</v>
@@ -715,10 +723,10 @@
         <v>7.0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="1">
         <v>6.0</v>
@@ -729,8 +737,9 @@
       <c r="I5" s="1">
         <v>763.0</v>
       </c>
-      <c r="J5" s="4">
-        <v>3.0</v>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -752,11 +761,11 @@
       <c r="AB5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>43844.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
         <v>41.0</v>
@@ -765,10 +774,10 @@
         <v>7.0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="1">
         <v>6.0</v>
@@ -779,8 +788,9 @@
       <c r="I6" s="1">
         <v>763.0</v>
       </c>
-      <c r="J6" s="4">
-        <v>4.0</v>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -802,11 +812,11 @@
       <c r="AB6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>43845.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
         <v>41.0</v>
@@ -815,10 +825,10 @@
         <v>12.0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1">
         <v>5.0</v>
@@ -829,8 +839,9 @@
       <c r="I7" s="1">
         <v>763.0</v>
       </c>
-      <c r="J7" s="4">
-        <v>5.0</v>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -852,11 +863,11 @@
       <c r="AB7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>43846.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <v>45.0</v>
@@ -865,10 +876,10 @@
         <v>15.0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="1">
         <v>5.0</v>
@@ -879,8 +890,9 @@
       <c r="I8" s="1">
         <v>763.0</v>
       </c>
-      <c r="J8" s="4">
-        <v>6.0</v>
+      <c r="J8" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -902,11 +914,11 @@
       <c r="AB8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>43847.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
         <v>62.0</v>
@@ -915,10 +927,10 @@
         <v>19.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="1">
         <v>8.0</v>
@@ -929,8 +941,9 @@
       <c r="I9" s="1">
         <v>763.0</v>
       </c>
-      <c r="J9" s="4">
-        <v>7.0</v>
+      <c r="J9" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -952,11 +965,11 @@
       <c r="AB9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>43848.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
         <f>C9+59</f>
@@ -967,10 +980,10 @@
         <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="1">
         <v>7.0</v>
@@ -981,8 +994,9 @@
       <c r="I10" s="1">
         <v>763.0</v>
       </c>
-      <c r="J10" s="4">
-        <v>8.0</v>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -1004,11 +1018,11 @@
       <c r="AB10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>43849.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
         <f>C10+77</f>
@@ -1034,8 +1048,9 @@
       <c r="I11" s="1">
         <v>817.0</v>
       </c>
-      <c r="J11" s="4">
-        <v>9.0</v>
+      <c r="J11" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -1057,7 +1072,7 @@
       <c r="AB11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>43850.0</v>
       </c>
       <c r="B12" s="1">
@@ -1067,16 +1082,16 @@
         <v>291.0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="1">
         <v>6.0</v>
@@ -1084,8 +1099,9 @@
       <c r="I12" s="1">
         <v>1739.0</v>
       </c>
-      <c r="J12" s="4">
-        <v>10.0</v>
+      <c r="J12" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -1107,7 +1123,7 @@
       <c r="AB12" s="5"/>
     </row>
     <row r="13">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>43851.0</v>
       </c>
       <c r="B13" s="1">
@@ -1117,13 +1133,13 @@
         <v>440.0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="1">
         <v>102.0</v>
@@ -1134,8 +1150,9 @@
       <c r="I13" s="1">
         <v>2197.0</v>
       </c>
-      <c r="J13" s="4">
-        <v>11.0</v>
+      <c r="J13" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -1157,7 +1174,7 @@
       <c r="AB13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>43852.0</v>
       </c>
       <c r="B14" s="1">
@@ -1167,16 +1184,16 @@
         <v>571.0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="1">
         <v>17.0</v>
@@ -1184,8 +1201,9 @@
       <c r="I14" s="1">
         <v>5897.0</v>
       </c>
-      <c r="J14" s="4">
-        <v>12.0</v>
+      <c r="J14" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -1207,7 +1225,7 @@
       <c r="AB14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>43853.0</v>
       </c>
       <c r="B15" s="1">
@@ -1220,10 +1238,10 @@
         <v>34.0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" s="1">
         <v>177.0</v>
@@ -1234,8 +1252,9 @@
       <c r="I15" s="1">
         <v>9507.0</v>
       </c>
-      <c r="J15" s="4">
-        <v>13.0</v>
+      <c r="J15" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -1257,7 +1276,7 @@
       <c r="AB15" s="5"/>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>43854.0</v>
       </c>
       <c r="B16" s="1">
@@ -1270,10 +1289,10 @@
         <v>38.0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="1">
         <v>237.0</v>
@@ -1284,8 +1303,9 @@
       <c r="I16" s="1">
         <v>15197.0</v>
       </c>
-      <c r="J16" s="4">
-        <v>14.0</v>
+      <c r="J16" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -1307,7 +1327,7 @@
       <c r="AB16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>43855.0</v>
       </c>
       <c r="B17" s="1">
@@ -1320,10 +1340,10 @@
         <v>49.0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17" s="1">
         <v>324.0</v>
@@ -1334,8 +1354,9 @@
       <c r="I17" s="1">
         <v>23431.0</v>
       </c>
-      <c r="J17" s="4">
-        <v>15.0</v>
+      <c r="J17" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -1357,7 +1378,7 @@
       <c r="AB17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>43856.0</v>
       </c>
       <c r="B18" s="1">
@@ -1370,10 +1391,10 @@
         <v>51.0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" s="1">
         <v>461.0</v>
@@ -1384,8 +1405,9 @@
       <c r="I18" s="1">
         <v>32799.0</v>
       </c>
-      <c r="J18" s="4">
-        <v>16.0</v>
+      <c r="J18" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -1407,7 +1429,7 @@
       <c r="AB18" s="5"/>
     </row>
     <row r="19">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>43857.0</v>
       </c>
       <c r="B19" s="1">
@@ -1420,10 +1442,10 @@
         <v>60.0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" s="1">
         <v>976.0</v>
@@ -1434,8 +1456,9 @@
       <c r="I19" s="1">
         <v>47833.0</v>
       </c>
-      <c r="J19" s="4">
-        <v>17.0</v>
+      <c r="J19" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -1457,7 +1480,7 @@
       <c r="AB19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>43858.0</v>
       </c>
       <c r="B20" s="1">
@@ -1470,10 +1493,10 @@
         <v>103.0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" s="1">
         <v>1239.0</v>
@@ -1484,8 +1507,9 @@
       <c r="I20" s="1">
         <v>65537.0</v>
       </c>
-      <c r="J20" s="4">
-        <v>18.0</v>
+      <c r="J20" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -1507,7 +1531,7 @@
       <c r="AB20" s="5"/>
     </row>
     <row r="21">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>43859.0</v>
       </c>
       <c r="B21" s="1">
@@ -1520,10 +1544,10 @@
         <v>124.0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" s="1">
         <v>1370.0</v>
@@ -1534,8 +1558,9 @@
       <c r="I21" s="1">
         <v>88693.0</v>
       </c>
-      <c r="J21" s="4">
-        <v>19.0</v>
+      <c r="J21" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
@@ -1557,7 +1582,7 @@
       <c r="AB21" s="5"/>
     </row>
     <row r="22">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>43860.0</v>
       </c>
       <c r="B22" s="1">
@@ -1570,10 +1595,10 @@
         <v>171.0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" s="1">
         <v>1527.0</v>
@@ -1584,8 +1609,9 @@
       <c r="I22" s="1">
         <v>113579.0</v>
       </c>
-      <c r="J22" s="4">
-        <v>20.0</v>
+      <c r="J22" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -1607,7 +1633,7 @@
       <c r="AB22" s="5"/>
     </row>
     <row r="23">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>43861.0</v>
       </c>
       <c r="B23" s="1">
@@ -1620,10 +1646,10 @@
         <v>243.0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" s="1">
         <v>1795.0</v>
@@ -1634,8 +1660,9 @@
       <c r="I23" s="1">
         <v>136987.0</v>
       </c>
-      <c r="J23" s="4">
-        <v>21.0</v>
+      <c r="J23" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
@@ -1657,7 +1684,7 @@
       <c r="AB23" s="5"/>
     </row>
     <row r="24">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>43862.0</v>
       </c>
       <c r="B24" s="1">
@@ -1670,10 +1697,10 @@
         <v>328.0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G24" s="1">
         <v>2110.0</v>
@@ -1684,8 +1711,9 @@
       <c r="I24" s="1">
         <v>163844.0</v>
       </c>
-      <c r="J24" s="4">
-        <v>22.0</v>
+      <c r="J24" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -1707,16 +1735,37 @@
       <c r="AB24" s="5"/>
     </row>
     <row r="25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="A25" s="2">
+        <v>43863.0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>21558.0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>17205.0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>475.0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2296.0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>361.0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>189583.0</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
@@ -1737,16 +1786,37 @@
       <c r="AB25" s="5"/>
     </row>
     <row r="26">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="A26" s="2">
+        <v>43864.0</v>
+      </c>
+      <c r="B26" s="6">
+        <v>23214.0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>20437.0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>632.0</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="6">
+        <v>2788.0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>425.0</v>
+      </c>
+      <c r="I26" s="6">
+        <v>221015.0</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -1767,16 +1837,37 @@
       <c r="AB26" s="5"/>
     </row>
     <row r="27">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="A27" s="4">
+        <v>43865.0</v>
+      </c>
+      <c r="B27" s="6">
+        <v>23260.0</v>
+      </c>
+      <c r="C27" s="6">
+        <v>24324.0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>892.0</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="6">
+        <v>3219.0</v>
+      </c>
+      <c r="H27" s="6">
+        <v>490.0</v>
+      </c>
+      <c r="I27" s="6">
+        <v>252154.0</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
@@ -31013,51 +31104,57 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="2">
         <v>43849.0</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>43850.0</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>43851.0</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>43852.0</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="2">
         <v>43853.0</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="2">
         <v>43854.0</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="2">
         <v>43855.0</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="2">
         <v>43856.0</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="2">
         <v>43857.0</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="2">
         <v>43858.0</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="2">
         <v>43859.0</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="2">
         <v>43860.0</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="2">
         <v>43861.0</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="2">
         <v>43862.0</v>
       </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
+      <c r="P1" s="2">
+        <v>43863.0</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>43864.0</v>
+      </c>
+      <c r="R1" s="4">
+        <v>43865.0</v>
+      </c>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -31069,7 +31166,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>0.0</v>
@@ -31078,28 +31175,28 @@
         <v>0.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L2" s="1">
         <v>200.0</v>
@@ -31113,9 +31210,15 @@
       <c r="O2" s="1">
         <v>340.0</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
+      <c r="P2" s="1">
+        <v>408.0</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>480.0</v>
+      </c>
+      <c r="R2" s="6">
+        <v>530.0</v>
+      </c>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -31136,28 +31239,28 @@
         <v>10.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L3" s="1">
         <v>114.0</v>
@@ -31171,9 +31274,15 @@
       <c r="O3" s="1">
         <v>191.0</v>
       </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
+      <c r="P3" s="1">
+        <v>212.0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>212.0</v>
+      </c>
+      <c r="R3" s="6">
+        <v>253.0</v>
+      </c>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -31194,28 +31303,28 @@
         <v>5.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="1">
         <v>182.0</v>
@@ -31229,9 +31338,15 @@
       <c r="O4" s="1">
         <v>275.0</v>
       </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
+      <c r="P4" s="1">
+        <v>312.0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>337.0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>376.0</v>
+      </c>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
@@ -31246,34 +31361,34 @@
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" s="1">
         <v>101.0</v>
@@ -31287,9 +31402,15 @@
       <c r="O5" s="1">
         <v>159.0</v>
       </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
+      <c r="P5" s="1">
+        <v>179.0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>179.0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>205.0</v>
+      </c>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
@@ -31304,34 +31425,34 @@
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" s="1">
         <v>26.0</v>
@@ -31345,9 +31466,15 @@
       <c r="O6" s="1">
         <v>40.0</v>
       </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
+      <c r="P6" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>55.0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>57.0</v>
+      </c>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
@@ -31368,28 +31495,28 @@
         <v>26.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" s="1">
         <v>354.0</v>
@@ -31403,9 +31530,15 @@
       <c r="O7" s="1">
         <v>632.0</v>
       </c>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
+      <c r="P7" s="1">
+        <v>725.0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>797.0</v>
+      </c>
+      <c r="R7" s="6">
+        <v>895.0</v>
+      </c>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
@@ -31426,28 +31559,28 @@
         <v>0.0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L8" s="1">
         <v>78.0</v>
@@ -31458,12 +31591,18 @@
       <c r="N8" s="1">
         <v>100.0</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="1">
         <v>111.0</v>
       </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
+      <c r="P8" s="1">
+        <v>127.0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>139.0</v>
+      </c>
+      <c r="R8" s="6">
+        <v>150.0</v>
+      </c>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
@@ -31484,28 +31623,28 @@
         <v>0.0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L9" s="1">
         <v>12.0</v>
@@ -31519,9 +31658,15 @@
       <c r="O9" s="1">
         <v>38.0</v>
       </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
+      <c r="P9" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>46.0</v>
+      </c>
+      <c r="R9" s="6">
+        <v>64.0</v>
+      </c>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
@@ -31542,28 +31687,28 @@
         <v>0.0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="1">
         <v>46.0</v>
@@ -31574,12 +31719,18 @@
       <c r="N10" s="1">
         <v>58.0</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="1">
         <v>64.0</v>
       </c>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
+      <c r="P10" s="1">
+        <v>71.0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>79.0</v>
+      </c>
+      <c r="R10" s="6">
+        <v>91.0</v>
+      </c>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
@@ -31594,34 +31745,34 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L11" s="1">
         <v>65.0</v>
@@ -31632,12 +31783,18 @@
       <c r="N11" s="1">
         <v>96.0</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="1">
         <v>104.0</v>
       </c>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
+      <c r="P11" s="1">
+        <v>113.0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>126.0</v>
+      </c>
+      <c r="R11" s="6">
+        <v>135.0</v>
+      </c>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
@@ -31658,28 +31815,28 @@
         <v>0.0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L12" s="1">
         <v>43.0</v>
@@ -31693,9 +31850,15 @@
       <c r="O12" s="1">
         <v>95.0</v>
       </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
+      <c r="P12" s="1">
+        <v>121.0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>155.0</v>
+      </c>
+      <c r="R12" s="6">
+        <v>190.0</v>
+      </c>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
@@ -31716,28 +31879,28 @@
         <v>1.0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" s="1">
         <v>278.0</v>
@@ -31748,12 +31911,18 @@
       <c r="N13" s="1">
         <v>422.0</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="1">
         <v>493.0</v>
       </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
+      <c r="P13" s="1">
+        <v>566.0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>675.0</v>
+      </c>
+      <c r="R13" s="6">
+        <v>764.0</v>
+      </c>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -31774,28 +31943,28 @@
         <v>375.0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L14" s="1">
         <v>4586.0</v>
@@ -31806,12 +31975,18 @@
       <c r="N14" s="1">
         <v>7153.0</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="1">
         <v>9074.0</v>
       </c>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
+      <c r="P14" s="1">
+        <v>11177.0</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>13522.0</v>
+      </c>
+      <c r="R14" s="6">
+        <v>16678.0</v>
+      </c>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
@@ -31832,28 +32007,28 @@
         <v>1.0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L15" s="1">
         <v>277.0</v>
@@ -31867,9 +32042,15 @@
       <c r="O15" s="1">
         <v>463.0</v>
       </c>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
+      <c r="P15" s="1">
+        <v>521.0</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>521.0</v>
+      </c>
+      <c r="R15" s="6">
+        <v>661.0</v>
+      </c>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
@@ -31884,34 +32065,34 @@
         <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L16" s="1">
         <v>18.0</v>
@@ -31922,12 +32103,18 @@
       <c r="N16" s="1">
         <v>20.0</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="1">
         <v>27.0</v>
       </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
+      <c r="P16" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>34.0</v>
+      </c>
+      <c r="R16" s="6">
+        <v>42.0</v>
+      </c>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
@@ -31942,34 +32129,34 @@
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L17" s="1">
         <v>129.0</v>
@@ -31980,12 +32167,18 @@
       <c r="N17" s="1">
         <v>168.0</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="1">
         <v>236.0</v>
       </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
+      <c r="P17" s="1">
+        <v>271.0</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>271.0</v>
+      </c>
+      <c r="R17" s="6">
+        <v>341.0</v>
+      </c>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
@@ -32006,28 +32199,28 @@
         <v>2.0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L18" s="1">
         <v>162.0</v>
@@ -32041,9 +32234,15 @@
       <c r="O18" s="1">
         <v>333.0</v>
       </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
+      <c r="P18" s="1">
+        <v>391.0</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>391.0</v>
+      </c>
+      <c r="R18" s="6">
+        <v>548.0</v>
+      </c>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
@@ -32064,28 +32263,28 @@
         <v>0.0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L19" s="1">
         <v>14.0</v>
@@ -32096,12 +32295,18 @@
       <c r="N19" s="1">
         <v>14.0</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="1">
         <v>23.0</v>
       </c>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
+      <c r="P19" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>42.0</v>
+      </c>
+      <c r="R19" s="6">
+        <v>54.0</v>
+      </c>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
@@ -32116,34 +32321,34 @@
         <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L20" s="1">
         <v>41.0</v>
@@ -32157,9 +32362,15 @@
       <c r="O20" s="1">
         <v>69.0</v>
       </c>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
+      <c r="P20" s="1">
+        <v>73.0</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>74.0</v>
+      </c>
+      <c r="R20" s="6">
+        <v>81.0</v>
+      </c>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
@@ -32180,28 +32391,28 @@
         <v>0.0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L21" s="1">
         <v>17.0</v>
@@ -32212,12 +32423,18 @@
       <c r="N21" s="1">
         <v>21.0</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="1">
         <v>28.0</v>
       </c>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
+      <c r="P21" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>31.0</v>
+      </c>
+      <c r="R21" s="6">
+        <v>34.0</v>
+      </c>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
@@ -32232,34 +32449,34 @@
         <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L22" s="1">
         <v>6.0</v>
@@ -32270,12 +32487,18 @@
       <c r="N22" s="1">
         <v>8.0</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="1">
         <v>11.0</v>
       </c>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
+      <c r="P22" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>13.0</v>
+      </c>
+      <c r="R22" s="6">
+        <v>17.0</v>
+      </c>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
@@ -32290,34 +32513,34 @@
         <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L23" s="1">
         <v>63.0</v>
@@ -32331,9 +32554,15 @@
       <c r="O23" s="1">
         <v>116.0</v>
       </c>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
+      <c r="P23" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>128.0</v>
+      </c>
+      <c r="R23" s="6">
+        <v>165.0</v>
+      </c>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
@@ -32354,28 +32583,28 @@
         <v>1.0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L24" s="1">
         <v>158.0</v>
@@ -32386,12 +32615,18 @@
       <c r="N24" s="1">
         <v>202.0</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="1">
         <v>230.0</v>
       </c>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
+      <c r="P24" s="1">
+        <v>259.0</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>259.0</v>
+      </c>
+      <c r="R24" s="6">
+        <v>307.0</v>
+      </c>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
@@ -32412,28 +32647,28 @@
         <v>9.0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L25" s="1">
         <v>112.0</v>
@@ -32447,9 +32682,15 @@
       <c r="O25" s="1">
         <v>182.0</v>
       </c>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
+      <c r="P25" s="1">
+        <v>203.0</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>208.0</v>
+      </c>
+      <c r="R25" s="6">
+        <v>243.0</v>
+      </c>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
@@ -32470,28 +32711,28 @@
         <v>0.0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L26" s="1">
         <v>35.0</v>
@@ -32502,12 +32743,18 @@
       <c r="N26" s="1">
         <v>47.0</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="1">
         <v>56.0</v>
       </c>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
+      <c r="P26" s="1">
+        <v>66.0</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>74.0</v>
+      </c>
+      <c r="R26" s="6">
+        <v>81.0</v>
+      </c>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
@@ -32528,28 +32775,28 @@
         <v>2.0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L27" s="1">
         <v>142.0</v>
@@ -32563,9 +32810,15 @@
       <c r="O27" s="1">
         <v>231.0</v>
       </c>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
+      <c r="P27" s="1">
+        <v>254.0</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>254.0</v>
+      </c>
+      <c r="R27" s="6">
+        <v>301.0</v>
+      </c>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
@@ -32586,28 +32839,28 @@
         <v>2.0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L28" s="1">
         <v>29.0</v>
@@ -32621,9 +32874,15 @@
       <c r="O28" s="1">
         <v>48.0</v>
       </c>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
+      <c r="P28" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>60.0</v>
+      </c>
+      <c r="R28" s="6">
+        <v>69.0</v>
+      </c>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
@@ -32638,34 +32897,34 @@
         <v>39</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L29" s="1">
         <v>1.0</v>
@@ -32676,12 +32935,18 @@
       <c r="N29" s="1">
         <v>1.0</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="1">
         <v>1.0</v>
       </c>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
+      <c r="P29" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="R29" s="6">
+        <v>1.0</v>
+      </c>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
@@ -32696,34 +32961,34 @@
         <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L30" s="1">
         <v>14.0</v>
@@ -32734,12 +32999,18 @@
       <c r="N30" s="1">
         <v>17.0</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30" s="1">
         <v>21.0</v>
       </c>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
+      <c r="P30" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>24.0</v>
+      </c>
+      <c r="R30" s="6">
+        <v>32.0</v>
+      </c>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
@@ -32760,28 +33031,28 @@
         <v>1.0</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L31" s="1">
         <v>70.0</v>
@@ -32792,12 +33063,18 @@
       <c r="N31" s="1">
         <v>83.0</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31" s="1">
         <v>99.0</v>
       </c>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
+      <c r="P31" s="1">
+        <v>114.0</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>117.0</v>
+      </c>
+      <c r="R31" s="6">
+        <v>124.0</v>
+      </c>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
@@ -32818,28 +33095,28 @@
         <v>5.0</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L32" s="1">
         <v>428.0</v>
@@ -32850,12 +33127,18 @@
       <c r="N32" s="1">
         <v>537.0</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32" s="1">
         <v>661.0</v>
       </c>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
+      <c r="P32" s="1">
+        <v>724.0</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>724.0</v>
+      </c>
+      <c r="R32" s="6">
+        <v>895.0</v>
+      </c>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
@@ -33135,9 +33418,15 @@
       <c r="O41" s="1">
         <v>14.0</v>
       </c>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
+      <c r="P41" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="R41" s="6">
+        <v>18.0</v>
+      </c>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
@@ -33193,9 +33482,15 @@
       <c r="O42" s="1">
         <v>7.0</v>
       </c>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
+      <c r="P42" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="R42" s="6">
+        <v>10.0</v>
+      </c>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
@@ -33251,9 +33546,15 @@
       <c r="O43" s="1">
         <v>10.0</v>
       </c>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
+      <c r="P43" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="R43" s="6">
+        <v>11.0</v>
+      </c>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
@@ -33309,9 +33610,15 @@
       <c r="O44" s="1">
         <v>15.0</v>
       </c>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
+      <c r="P44" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="Q44" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="R44" s="6">
+        <v>19.0</v>
+      </c>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
@@ -33367,9 +33674,15 @@
       <c r="O45" s="1">
         <v>19.0</v>
       </c>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
+      <c r="P45" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="Q45" s="6">
+        <v>19.0</v>
+      </c>
+      <c r="R45" s="6">
+        <v>25.0</v>
+      </c>
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
@@ -33425,9 +33738,15 @@
       <c r="O46" s="1">
         <v>15.0</v>
       </c>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
+      <c r="P46" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="Q46" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="R46" s="6">
+        <v>18.0</v>
+      </c>
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
@@ -33483,9 +33802,15 @@
       <c r="O47" s="1">
         <v>8.0</v>
       </c>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
+      <c r="P47" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="Q47" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="R47" s="6">
+        <v>11.0</v>
+      </c>
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
       <c r="U47" s="5"/>
@@ -33541,9 +33866,15 @@
       <c r="O48" s="1">
         <v>7.0</v>
       </c>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
+      <c r="P48" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="Q48" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="R48" s="6">
+        <v>10.0</v>
+      </c>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
       <c r="U48" s="5"/>
@@ -33599,9 +33930,15 @@
       <c r="O49" s="1">
         <v>18.0</v>
       </c>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
+      <c r="P49" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="Q49" s="6">
+        <v>18.0</v>
+      </c>
+      <c r="R49" s="6">
+        <v>24.0</v>
+      </c>
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
       <c r="U49" s="5"/>
@@ -33657,9 +33994,15 @@
       <c r="O50" s="1">
         <v>1.0</v>
       </c>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
+      <c r="P50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q50" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="R50" s="6">
+        <v>1.0</v>
+      </c>
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
@@ -33715,9 +34058,15 @@
       <c r="O51" s="1">
         <v>6.0</v>
       </c>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
+      <c r="P51" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="Q51" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="R51" s="6">
+        <v>6.0</v>
+      </c>
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
       <c r="U51" s="5"/>
@@ -33773,9 +34122,15 @@
       <c r="O52" s="1">
         <v>8.0</v>
       </c>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
+      <c r="P52" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="Q52" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="R52" s="6">
+        <v>10.0</v>
+      </c>
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
       <c r="U52" s="5"/>
@@ -33831,9 +34186,15 @@
       <c r="O53" s="1">
         <v>12.0</v>
       </c>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
+      <c r="P53" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="Q53" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="R53" s="6">
+        <v>13.0</v>
+      </c>
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
       <c r="U53" s="5"/>
@@ -33889,9 +34250,15 @@
       <c r="O54" s="1">
         <v>4.0</v>
       </c>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
+      <c r="P54" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="Q54" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="R54" s="6">
+        <v>5.0</v>
+      </c>
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
       <c r="U54" s="5"/>
@@ -33947,9 +34314,15 @@
       <c r="O55" s="1">
         <v>8.0</v>
       </c>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
+      <c r="P55" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="Q55" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="R55" s="6">
+        <v>10.0</v>
+      </c>
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
       <c r="U55" s="5"/>
@@ -34005,9 +34378,15 @@
       <c r="O56" s="1">
         <v>1.0</v>
       </c>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
+      <c r="P56" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q56" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="R56" s="6">
+        <v>1.0</v>
+      </c>
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
       <c r="U56" s="5"/>
@@ -34063,9 +34442,15 @@
       <c r="O57" s="1">
         <v>1.0</v>
       </c>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
+      <c r="P57" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q57" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="R57" s="6">
+        <v>1.0</v>
+      </c>
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
       <c r="U57" s="5"/>
@@ -34121,9 +34506,15 @@
       <c r="O58" s="1">
         <v>5.0</v>
       </c>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
+      <c r="P58" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="Q58" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="R58" s="6">
+        <v>5.0</v>
+      </c>
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
       <c r="U58" s="5"/>
@@ -34179,9 +34570,15 @@
       <c r="O59" s="1">
         <v>1.0</v>
       </c>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
+      <c r="P59" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q59" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="R59" s="6">
+        <v>1.0</v>
+      </c>
       <c r="S59" s="5"/>
       <c r="T59" s="5"/>
       <c r="U59" s="5"/>
@@ -34237,9 +34634,15 @@
       <c r="O60" s="1">
         <v>2.0</v>
       </c>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
+      <c r="P60" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Q60" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="R60" s="6">
+        <v>3.0</v>
+      </c>
       <c r="S60" s="5"/>
       <c r="T60" s="5"/>
       <c r="U60" s="5"/>
@@ -34295,9 +34698,15 @@
       <c r="O61" s="1">
         <v>2.0</v>
       </c>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="5"/>
+      <c r="P61" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="Q61" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="R61" s="6">
+        <v>3.0</v>
+      </c>
       <c r="S61" s="5"/>
       <c r="T61" s="5"/>
       <c r="U61" s="5"/>
@@ -34353,9 +34762,15 @@
       <c r="O62" s="1">
         <v>2.0</v>
       </c>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
+      <c r="P62" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Q62" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="R62" s="6">
+        <v>2.0</v>
+      </c>
       <c r="S62" s="5"/>
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
@@ -34411,9 +34826,15 @@
       <c r="O63" s="1">
         <v>2.0</v>
       </c>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
+      <c r="P63" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Q63" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="R63" s="6">
+        <v>2.0</v>
+      </c>
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
       <c r="U63" s="5"/>
@@ -34469,9 +34890,15 @@
       <c r="O64" s="1">
         <v>2.0</v>
       </c>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
+      <c r="P64" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Q64" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="R64" s="6">
+        <v>2.0</v>
+      </c>
       <c r="S64" s="5"/>
       <c r="T64" s="5"/>
       <c r="U64" s="5"/>
@@ -34527,9 +34954,15 @@
       <c r="O65" s="1">
         <v>1.0</v>
       </c>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
+      <c r="P65" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q65" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="R65" s="6">
+        <v>1.0</v>
+      </c>
       <c r="S65" s="5"/>
       <c r="T65" s="5"/>
       <c r="U65" s="5"/>
@@ -34585,9 +35018,15 @@
       <c r="O66" s="1">
         <v>1.0</v>
       </c>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
+      <c r="P66" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q66" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="R66" s="6">
+        <v>1.0</v>
+      </c>
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
@@ -34598,24 +35037,60 @@
       <c r="Z66" s="5"/>
     </row>
     <row r="67">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
+      <c r="A67" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C67" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D67" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E67" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F67" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G67" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H67" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I67" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J67" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K67" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L67" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M67" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N67" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O67" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P67" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Q67" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="R67" s="6">
+        <v>1.0</v>
+      </c>
       <c r="S67" s="5"/>
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
